--- a/genshin/440694572633060128_2020-09-30_14-00-01.xlsx
+++ b/genshin/440694572633060128_2020-09-30_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:27:27</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.10239583333</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-10-10 21:37:02</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44114.90071759259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-04 17:41:46</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44108.73733796296</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -752,10 +762,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-10-04 16:55:39</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44108.7053125</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -828,10 +836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-10-03 05:44:52</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44107.23949074074</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -900,10 +906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-10-03 01:12:17</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44107.05019675926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -968,10 +972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-10-02 16:21:34</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44106.68164351852</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1039,10 +1041,8 @@
           <t>3545061401</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-10-02 02:04:23</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44106.08637731482</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1114,10 +1114,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-10-02 01:58:03</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44106.08197916667</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1185,10 +1183,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-10-02 01:17:30</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44106.05381944445</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1256,10 +1252,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-10-02 00:56:47</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44106.03943287037</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1327,10 +1321,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-10-02 00:46:51</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44106.03253472222</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1398,10 +1390,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-10-02 00:45:09</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44106.03135416667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1469,10 +1459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-10-01 23:13:02</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44105.96738425926</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1532,10 +1520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-10-01 20:55:16</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44105.87171296297</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1599,10 +1585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-10-01 19:39:50</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44105.81932870371</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1666,10 +1650,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-10-01 12:54:43</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44105.53799768518</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1741,10 +1723,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-10-01 12:06:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44105.50422453704</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1816,10 +1796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-10-01 12:02:38</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44105.5018287037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1887,10 +1865,8 @@
           <t>3548308254</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-10-01 11:29:27</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44105.47878472223</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1954,10 +1930,8 @@
           <t>3547883231</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-10-01 09:23:22</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44105.39122685185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2021,10 +1995,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-10-01 08:14:40</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44105.34351851852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2096,10 +2068,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-10-01 03:15:47</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44105.13596064815</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2171,10 +2141,8 @@
           <t>3547245706</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-10-01 01:05:27</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44105.04545138889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2242,10 +2210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-10-01 01:04:00</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44105.04444444444</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2313,10 +2279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-30 23:46:11</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44104.99040509259</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2384,10 +2348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-30 23:21:04</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44104.97296296297</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2451,10 +2413,8 @@
           <t>3546731329</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-30 22:42:40</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44104.94629629629</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2526,10 +2486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-30 22:41:54</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44104.94576388889</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2601,10 +2559,8 @@
           <t>3545006070</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-30 22:15:19</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44104.92730324074</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2668,10 +2624,8 @@
           <t>3545006070</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-30 22:14:00</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44104.92638888889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2739,10 +2693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-30 22:07:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44104.92167824074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2802,10 +2754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-30 21:17:10</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44104.8869212963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2869,10 +2819,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:59:33</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44104.8746875</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2940,10 +2888,8 @@
           <t>3545018694</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:39:29</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44104.86075231482</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3011,10 +2957,8 @@
           <t>3545018694</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:33:49</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44104.85681712963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3082,10 +3026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:22:07</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44104.84869212963</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3153,10 +3095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:21:21</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44104.84815972222</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3224,10 +3164,8 @@
           <t>3545039148</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:11:55</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44104.8416087963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3295,10 +3233,8 @@
           <t>3546122815</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:11:47</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44104.84151620371</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3366,10 +3302,8 @@
           <t>3545056773</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:11:36</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44104.84138888889</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3437,10 +3371,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:08:56</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44104.83953703703</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3508,10 +3440,8 @@
           <t>3546105735</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-30 20:06:24</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44104.83777777778</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3575,10 +3505,8 @@
           <t>3546034907</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:50:42</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44104.826875</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3646,10 +3574,8 @@
           <t>3545034716</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:43:22</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44104.82178240741</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3713,10 +3639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:41:42</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44104.820625</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3780,10 +3704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:25:46</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44104.80956018518</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3847,10 +3769,8 @@
           <t>3545866161</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:05:18</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44104.79534722222</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -3922,10 +3842,8 @@
           <t>3545859148</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:04:35</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44104.79484953704</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -3997,10 +3915,8 @@
           <t>3545140792</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:02:14</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44104.7932175926</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4070,10 +3986,8 @@
           <t>3545140792</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-30 19:00:43</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44104.79216435185</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4143,10 +4057,8 @@
           <t>3544989751</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:53:21</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44104.78704861111</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4214,10 +4126,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:51:17</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44104.78561342593</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4286,10 +4196,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:49:19</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44104.78424768519</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4357,10 +4265,8 @@
           <t>3545104154</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:41:53</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44104.77908564815</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4432,10 +4338,8 @@
           <t>3545717051</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:27:50</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44104.7693287037</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4507,10 +4411,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:26:24</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44104.76833333333</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4582,10 +4484,8 @@
           <t>3545478064</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:24:19</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44104.76688657407</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4657,10 +4557,8 @@
           <t>3545674422</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:17:48</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44104.76236111111</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4729,10 +4627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:14:37</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44104.76015046296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4800,10 +4696,8 @@
           <t>3545664340</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:13:54</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44104.75965277778</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4871,10 +4765,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:13:42</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44104.75951388889</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4950,10 +4842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:13:17</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44104.75922453704</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5021,10 +4911,8 @@
           <t>3545658598</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:13:14</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44104.75918981482</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5096,10 +4984,8 @@
           <t>3545656636</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:11:39</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44104.75809027778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5171,10 +5057,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:09:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44104.75688657408</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5234,10 +5118,8 @@
           <t>3545626478</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-30 18:03:24</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44104.75236111111</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5305,10 +5187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:50:48</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44104.74361111111</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5380,10 +5260,8 @@
           <t>3545580116</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:50:40</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44104.74351851852</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5451,10 +5329,8 @@
           <t>3545580116</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:50:00</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44104.74305555555</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5526,10 +5402,8 @@
           <t>3545572772</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:48:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44104.74166666667</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5597,10 +5471,8 @@
           <t>3545564760</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:47:15</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44104.74114583333</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5672,10 +5544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:46:19</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44104.74049768518</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5743,10 +5613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:45:16</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44104.73976851852</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5814,10 +5682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:42:47</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44104.73804398148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5885,10 +5751,8 @@
           <t>3545335853</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:41:09</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44104.73690972223</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5952,10 +5816,8 @@
           <t>3545547196</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:40:57</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44104.73677083333</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -6031,10 +5893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:39:16</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44104.73560185185</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6102,10 +5962,8 @@
           <t>3545528970</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:39:13</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44104.73556712963</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6181,10 +6039,8 @@
           <t>3545528970</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:35:57</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44104.73329861111</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6256,10 +6112,8 @@
           <t>3545140792</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:35:42</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44104.733125</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6335,10 +6189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:33:32</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44104.73162037037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6406,10 +6258,8 @@
           <t>3545010648</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:33:16</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44104.73143518518</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6481,10 +6331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:27:26</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44104.72738425926</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6544,10 +6392,8 @@
           <t>3545491903</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:24:42</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44104.72548611111</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6623,10 +6469,8 @@
           <t>3545478064</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:21:13</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44104.72306712963</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6690,10 +6534,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:16:45</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44104.71996527778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6765,10 +6607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:07:29</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44104.71353009259</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6836,10 +6676,8 @@
           <t>3545160249</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-30 17:03:33</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44104.71079861111</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6915,10 +6753,8 @@
           <t>3545408543</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:58:28</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44104.70726851852</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6982,10 +6818,8 @@
           <t>3545403469</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:57:39</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44104.70670138889</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7053,10 +6887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:57:00</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44104.70625</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7124,10 +6956,8 @@
           <t>3545402362</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:56:35</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44104.70596064815</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7195,10 +7025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:56:11</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44104.70568287037</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7262,10 +7090,8 @@
           <t>3545401351</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:55:37</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44104.70528935185</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -7333,10 +7159,8 @@
           <t>3545379510</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:54:56</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44104.70481481482</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7404,10 +7228,8 @@
           <t>3545388320</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:52:48</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44104.70333333333</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7475,10 +7297,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:52:16</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44104.70296296296</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7550,10 +7370,8 @@
           <t>3545379510</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:49:55</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44104.70133101852</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7621,10 +7439,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:49:01</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44104.70070601852</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7692,10 +7508,8 @@
           <t>3545370801</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:45:43</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44104.69841435185</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7759,10 +7573,8 @@
           <t>3545362608</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:43:38</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44104.69696759259</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7830,10 +7642,8 @@
           <t>3545362417</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:43:26</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44104.6968287037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7905,10 +7715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:42:02</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44104.69585648148</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7976,10 +7784,8 @@
           <t>3545351913</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:40:46</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44104.69497685185</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8055,10 +7861,8 @@
           <t>3545355519</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:40:39</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44104.69489583333</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8130,10 +7934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:35:05</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44104.6910300926</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8209,10 +8011,8 @@
           <t>3545335853</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:35:00</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44104.69097222222</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8288,10 +8088,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:33:36</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44104.69</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8355,10 +8153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:32:31</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44104.68924768519</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8434,10 +8230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:27:14</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44104.68557870371</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8505,10 +8299,8 @@
           <t>3545307407</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:25:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44104.68429398148</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8584,10 +8376,8 @@
           <t>3545315003</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:25:12</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44104.68416666667</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8655,10 +8445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:24:55</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44104.6839699074</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8726,10 +8514,8 @@
           <t>3545207913</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:23:49</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44104.68320601852</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8793,10 +8579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:23:30</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44104.68298611111</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8864,10 +8648,8 @@
           <t>3544994634</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:23:29</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44104.68297453703</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8935,10 +8717,8 @@
           <t>3545207913</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:21:05</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44104.68130787037</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9002,10 +8782,8 @@
           <t>3545232359</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:18:19</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44104.67938657408</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9073,10 +8851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:16:47</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44104.67832175926</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9140,10 +8916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:13:03</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44104.67572916667</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9207,10 +8981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:12:52</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44104.67560185185</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9274,10 +9046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:05:56</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44104.67078703704</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9345,10 +9115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:05:19</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44104.6703587963</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9417,10 +9185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:04:26</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44104.66974537037</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9496,10 +9262,8 @@
           <t>3545261149</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:04:15</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44104.66961805556</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9563,10 +9327,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:04:00</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44104.66944444444</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9630,10 +9392,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:02:34</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44104.66844907407</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9697,10 +9457,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:02:11</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44104.66818287037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9772,10 +9530,8 @@
           <t>3545061401</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:01:31</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44104.6677199074</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9851,10 +9607,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:01:06</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44104.66743055556</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9918,10 +9672,8 @@
           <t>3545068947</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-30 16:00:11</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44104.66679398148</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -9993,10 +9745,8 @@
           <t>3545250787</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:59:53</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44104.66658564815</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10073,10 +9823,8 @@
           <t>3545247519</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:59:52</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44104.66657407407</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10148,10 +9896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:58:35</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44104.66568287037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10211,10 +9957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:57:56</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44104.66523148148</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10283,10 +10027,8 @@
           <t>3545245313</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:57:22</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44104.66483796296</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10362,10 +10104,8 @@
           <t>3545232359</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:54:01</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44104.66251157408</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10438,10 +10178,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:52:53</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44104.66172453704</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10509,10 +10247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:52:42</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44104.66159722222</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10588,10 +10324,8 @@
           <t>3545214547</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:49:18</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44104.65923611111</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10655,10 +10389,8 @@
           <t>3545209471</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:46:54</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44104.65756944445</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10730,10 +10462,8 @@
           <t>3545207913</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:45:00</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44104.65625</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10797,10 +10527,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:41:03</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44104.65350694444</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10876,10 +10604,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:39:43</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44104.65258101852</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10955,10 +10681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:39:40</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44104.6525462963</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11034,10 +10758,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:38:06</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44104.65145833333</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11113,10 +10835,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:37:23</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44104.65096064815</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11188,10 +10908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:37:22</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44104.65094907407</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11259,10 +10977,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:35:01</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44104.64931712963</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11338,10 +11054,8 @@
           <t>3545034716</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:33:35</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44104.64832175926</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11417,10 +11131,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:31:53</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44104.64714120371</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11492,10 +11204,8 @@
           <t>3545180956</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:31:09</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44104.64663194444</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11567,10 +11277,8 @@
           <t>3545176779</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:29:49</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44104.64570601852</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11648,10 +11356,8 @@
           <t>3545176020</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:28:54</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44104.64506944444</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11715,10 +11421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:28:00</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44104.64444444444</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11786,10 +11490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:27:27</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44104.6440625</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11863,10 +11565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:27:09</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44104.64385416666</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -11934,10 +11634,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:26:51</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44104.64364583333</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12013,10 +11711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:26:41</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44104.6435300926</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12080,10 +11776,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:25:23</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44104.64262731482</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12159,10 +11853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:21:41</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44104.64005787037</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12238,10 +11930,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:21:25</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44104.63987268518</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12313,10 +12003,8 @@
           <t>3545160249</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:21:23</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44104.63984953704</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12388,10 +12076,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:21:21</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44104.63982638889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12464,10 +12150,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:21:14</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44104.63974537037</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12543,10 +12227,8 @@
           <t>3545068947</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:20:34</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44104.63928240741</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12622,10 +12304,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:18:27</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44104.6378125</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12693,10 +12373,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:17:46</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44104.63733796297</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12764,10 +12442,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:17:33</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44104.6371875</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12836,10 +12512,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:17:03</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44104.63684027778</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12907,10 +12581,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:15:32</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44104.63578703703</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12982,10 +12654,8 @@
           <t>3545150765</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:15:32</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44104.63578703703</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13053,10 +12723,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:15:22</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44104.6356712963</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13120,10 +12788,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:15:15</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44104.63559027778</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13187,10 +12853,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:15:09</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44104.63552083333</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13266,10 +12930,8 @@
           <t>3545143334</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:14:53</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44104.63533564815</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13345,10 +13007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:13:55</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44104.63466435186</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13412,10 +13072,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:13:21</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44104.63427083333</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13491,10 +13149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:13:15</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44104.63420138889</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13562,10 +13218,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:12:59</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44104.6340162037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13641,10 +13295,8 @@
           <t>3545141887</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:12:54</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44104.63395833333</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -13712,10 +13364,8 @@
           <t>3545141858</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:12:51</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44104.63392361111</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13791,10 +13441,8 @@
           <t>3545140792</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:11:27</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44104.63295138889</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13864,10 +13512,8 @@
           <t>3545137292</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:10:48</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44104.6325</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13943,10 +13589,8 @@
           <t>3545039148</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:10:28</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44104.63226851852</v>
       </c>
       <c r="I187" t="n">
         <v>2</v>
@@ -14014,10 +13658,8 @@
           <t>3545132009</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:09:53</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44104.63186342592</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14085,10 +13727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:09:09</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44104.63135416667</v>
       </c>
       <c r="I189" t="n">
         <v>15</v>
@@ -14156,10 +13796,8 @@
           <t>3545068947</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:08:55</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44104.63119212963</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14223,10 +13861,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:08:23</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44104.63082175926</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14294,10 +13930,8 @@
           <t>3545056773</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:07:50</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44104.63043981481</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14369,10 +14003,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:07:16</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44104.6300462963</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14444,10 +14076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:07:03</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44104.62989583334</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14515,10 +14145,8 @@
           <t>3545119467</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:06:11</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44104.62929398148</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14594,10 +14222,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:06:08</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44104.62925925926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14670,10 +14296,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:06:07</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44104.62924768519</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14741,10 +14365,8 @@
           <t>3545088075</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:06:02</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44104.62918981481</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14820,10 +14442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:04:43</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44104.62827546296</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14891,10 +14511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:04:14</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44104.62793981482</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14955,10 +14573,8 @@
           <t>3545117424</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:03:18</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44104.62729166666</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15030,10 +14646,8 @@
           <t>3545113715</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:02:25</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44104.62667824074</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15097,10 +14711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:01:54</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44104.62631944445</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15164,10 +14776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:00:57</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44104.62565972222</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15231,10 +14841,8 @@
           <t>3545034716</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-30 15:00:26</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44104.62530092592</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15306,10 +14914,8 @@
           <t>3545104154</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:59:02</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44104.62432870371</v>
       </c>
       <c r="I206" t="n">
         <v>4</v>
@@ -15381,10 +14987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:58:43</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44104.6241087963</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15456,10 +15060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:57:57</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44104.62357638889</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15527,10 +15129,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:56:54</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44104.62284722222</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15598,10 +15198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:56:11</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44104.62234953704</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15673,10 +15271,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:54:51</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44104.62142361111</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15745,10 +15341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:54:15</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44104.62100694444</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15816,10 +15410,8 @@
           <t>3545093456</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:53:14</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44104.62030092593</v>
       </c>
       <c r="I213" t="n">
         <v>9</v>
@@ -15891,10 +15483,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:52:36</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44104.61986111111</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15962,10 +15552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:51:56</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44104.61939814815</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16037,10 +15625,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:51:45</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44104.61927083333</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16108,10 +15694,8 @@
           <t>3545088075</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:51:14</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44104.61891203704</v>
       </c>
       <c r="I217" t="n">
         <v>10</v>
@@ -16179,10 +15763,8 @@
           <t>3545008459</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:51:08</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44104.61884259259</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16246,10 +15828,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:51:04</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44104.61879629629</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16313,10 +15893,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:50:48</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44104.61861111111</v>
       </c>
       <c r="I220" t="n">
         <v>6</v>
@@ -16384,10 +15962,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:50:20</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44104.61828703704</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16456,10 +16032,8 @@
           <t>3545090500</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:49:44</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44104.61787037037</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -16527,10 +16101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:49:42</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44104.61784722222</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16602,10 +16174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:49:31</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44104.61771990741</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16681,10 +16251,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:49:14</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44104.61752314815</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16760,10 +16328,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:49:12</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44104.6175</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16832,10 +16398,8 @@
           <t>3545080185</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:49:01</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44104.61737268518</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16907,10 +16471,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:48:05</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44104.61672453704</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -16978,10 +16540,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:47:58</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44104.61664351852</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17050,10 +16610,8 @@
           <t>3544978206</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:47:03</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44104.61600694444</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17129,10 +16687,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:46:54</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44104.61590277778</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17200,10 +16756,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:46:54</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44104.61590277778</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17271,10 +16825,8 @@
           <t>3544989751</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:46:23</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44104.61554398148</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17342,10 +16894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:46:08</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44104.61537037037</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17413,10 +16963,8 @@
           <t>3545080185</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:46:05</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44104.61533564814</v>
       </c>
       <c r="I235" t="n">
         <v>3</v>
@@ -17492,10 +17040,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:45:50</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44104.61516203704</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17563,10 +17109,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:45:45</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44104.61510416667</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17634,10 +17178,8 @@
           <t>3544987658</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:45:28</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44104.61490740741</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17705,10 +17247,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:45:19</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44104.61480324074</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17776,10 +17316,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:45:07</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44104.61466435185</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17848,10 +17386,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:44:59</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44104.61457175926</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17919,10 +17455,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:44:46</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44104.6144212963</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17990,10 +17524,8 @@
           <t>3545068947</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:44:36</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44104.61430555556</v>
       </c>
       <c r="I243" t="n">
         <v>4</v>
@@ -18065,10 +17597,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:44:34</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44104.6142824074</v>
       </c>
       <c r="I244" t="n">
         <v>3</v>
@@ -18136,10 +17666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:43:55</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44104.61383101852</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18207,10 +17735,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:43:48</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44104.61375</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18279,10 +17805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:43:20</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44104.61342592593</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18346,10 +17870,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:42:47</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44104.61304398148</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18426,10 +17948,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:41:30</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44104.61215277778</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18493,10 +18013,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:41:25</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44104.61209490741</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18564,10 +18082,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:41:01</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44104.61181712963</v>
       </c>
       <c r="I251" t="n">
         <v>6</v>
@@ -18636,10 +18152,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:40:55</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44104.61174768519</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18707,10 +18221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:40:50</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44104.61168981482</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18774,10 +18286,8 @@
           <t>3545070173</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:40:36</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44104.61152777778</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18850,10 +18360,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:40:29</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44104.61144675926</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18917,10 +18425,8 @@
           <t>3545039148</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:37:54</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44104.60965277778</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -18988,10 +18494,8 @@
           <t>3545061401</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:37:43</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44104.60952546296</v>
       </c>
       <c r="I257" t="n">
         <v>14</v>
@@ -19063,10 +18567,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:36:58</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44104.60900462963</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19142,10 +18644,8 @@
           <t>3545056773</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:36:47</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44104.60887731481</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19209,10 +18709,8 @@
           <t>3545052354</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:35:42</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44104.608125</v>
       </c>
       <c r="I260" t="n">
         <v>21</v>
@@ -19276,10 +18774,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:35:25</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44104.60792824074</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19347,10 +18843,8 @@
           <t>3545056773</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:35:19</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44104.6078587963</v>
       </c>
       <c r="I262" t="n">
         <v>2</v>
@@ -19418,10 +18912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:34:51</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44104.60753472222</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19489,10 +18981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:34:41</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44104.60741898148</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19568,10 +19058,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:34:11</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44104.60707175926</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19635,10 +19123,8 @@
           <t>3545039148</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:34:02</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44104.60696759259</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -19706,10 +19192,8 @@
           <t>3545050576</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:33:22</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44104.60650462963</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19785,10 +19269,8 @@
           <t>3545047929</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:33:00</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44104.60625</v>
       </c>
       <c r="I268" t="n">
         <v>4</v>
@@ -19864,10 +19346,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:32:31</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44104.60591435185</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19935,10 +19415,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:32:08</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44104.60564814815</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20006,10 +19484,8 @@
           <t>3545034716</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:31:37</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44104.60528935185</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20073,10 +19549,8 @@
           <t>3545039148</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:31:21</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44104.60510416667</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20144,10 +19618,8 @@
           <t>3545038637</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:30:34</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44104.60456018519</v>
       </c>
       <c r="I273" t="n">
         <v>4</v>
@@ -20219,10 +19691,8 @@
           <t>3544994634</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:29:57</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44104.60413194444</v>
       </c>
       <c r="I274" t="n">
         <v>16</v>
@@ -20286,10 +19756,8 @@
           <t>3545023926</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:29:34</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44104.60386574074</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20361,10 +19829,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:29:29</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44104.60380787037</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20440,10 +19906,8 @@
           <t>3545034716</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:28:47</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44104.60332175926</v>
       </c>
       <c r="I277" t="n">
         <v>4</v>
@@ -20515,10 +19979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:28:20</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44104.60300925926</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20578,10 +20040,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:28:03</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44104.6028125</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20650,10 +20110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:27:49</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44104.60265046296</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20725,10 +20183,8 @@
           <t>3545015589</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:27:35</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44104.60248842592</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20796,10 +20252,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:27:23</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44104.60234953704</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20871,10 +20325,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:26:38</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44104.6018287037</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20934,10 +20386,8 @@
           <t>3545032992</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:26:34</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44104.60178240741</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21005,10 +20455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:26:31</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44104.60174768518</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21072,10 +20520,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:26:31</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44104.60174768518</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21143,10 +20589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:26:22</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44104.60164351852</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21218,10 +20662,8 @@
           <t>3545025975</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:26:11</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44104.6015162037</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21293,10 +20735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:25:56</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44104.60134259259</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21372,10 +20812,8 @@
           <t>3545032313</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:25:42</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44104.60118055555</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21443,10 +20881,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:25:36</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44104.60111111111</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21506,10 +20942,8 @@
           <t>3545029452</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:25:30</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44104.60104166667</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21577,10 +21011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:25:25</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44104.6009837963</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21656,10 +21088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:25:13</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44104.60084490741</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21735,10 +21165,8 @@
           <t>3544994634</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:25:13</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44104.60084490741</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21806,10 +21234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:25:03</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44104.60072916667</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21870,10 +21296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:50</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44104.60057870371</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21945,10 +21369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:50</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44104.60057870371</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22016,10 +21438,8 @@
           <t>3545024673</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:46</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44104.60053240741</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22095,10 +21515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:45</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44104.60052083333</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22162,10 +21580,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:40</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44104.60046296296</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22241,10 +21657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:36</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44104.60041666667</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
@@ -22312,10 +21726,8 @@
           <t>3545031492</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:36</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44104.60041666667</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22387,10 +21799,8 @@
           <t>3545031467</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:35</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44104.60040509259</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22463,10 +21873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:34</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44104.60039351852</v>
       </c>
       <c r="I305" t="n">
         <v>4</v>
@@ -22538,10 +21946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:24:18</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44104.60020833334</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22609,10 +22015,8 @@
           <t>3545023926</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:23:45</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44104.59982638889</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22684,10 +22088,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:23:31</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44104.59966435185</v>
       </c>
       <c r="I308" t="n">
         <v>3</v>
@@ -22755,10 +22157,8 @@
           <t>3544978206</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:23:22</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44104.59956018518</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22822,10 +22222,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:23:14</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44104.59946759259</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22885,10 +22283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:23:09</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44104.59940972222</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22960,10 +22356,8 @@
           <t>3544987979</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:22:46</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44104.59914351852</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23027,10 +22421,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:22:12</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44104.59875</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23102,10 +22494,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:22:09</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44104.59871527777</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23173,10 +22563,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:22:01</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44104.59862268518</v>
       </c>
       <c r="I315" t="n">
         <v>4</v>
@@ -23248,10 +22636,8 @@
           <t>3545019425</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:21:54</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44104.59854166667</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23319,10 +22705,8 @@
           <t>3545026622</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:21:54</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44104.59854166667</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23390,10 +22774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:21:33</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44104.59829861111</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23469,10 +22851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:21:28</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44104.59824074074</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23540,10 +22920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:21:28</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44104.59824074074</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23611,10 +22989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:21:25</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44104.59820601852</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23686,10 +23062,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:21:12</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44104.59805555556</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23757,10 +23131,8 @@
           <t>3545025975</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:21:05</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44104.59797453704</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23824,10 +23196,8 @@
           <t>3545018694</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:20:56</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44104.59787037037</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23895,10 +23265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:20:46</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44104.59775462963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23974,10 +23342,8 @@
           <t>3545008459</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:20:44</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44104.59773148148</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24049,10 +23415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:20:25</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44104.59751157407</v>
       </c>
       <c r="I327" t="n">
         <v>3</v>
@@ -24120,10 +23484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:20:14</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44104.59738425926</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24192,10 +23554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:20:14</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44104.59738425926</v>
       </c>
       <c r="I329" t="n">
         <v>15</v>
@@ -24271,10 +23631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:20:01</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44104.5972337963</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24342,10 +23700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:20:01</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44104.5972337963</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24413,10 +23769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:19:37</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44104.59695601852</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24493,10 +23847,8 @@
           <t>3545020952</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:19:23</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44104.59679398148</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24564,10 +23916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:18:40</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44104.59629629629</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24640,10 +23990,8 @@
           <t>3545008459</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:18:03</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44104.59586805556</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24719,10 +24067,8 @@
           <t>3545008961</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:17:43</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44104.59563657407</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24794,10 +24140,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:17:43</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44104.59563657407</v>
       </c>
       <c r="I337" t="n">
         <v>3</v>
@@ -24865,10 +24209,8 @@
           <t>3545009808</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:17:42</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44104.595625</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24932,10 +24274,8 @@
           <t>3545009734</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:17:33</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44104.59552083333</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25003,10 +24343,8 @@
           <t>3544987658</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:17:18</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44104.59534722222</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25087,10 +24425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:17:12</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44104.59527777778</v>
       </c>
       <c r="I341" t="n">
         <v>166</v>
@@ -25154,10 +24490,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:17:07</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44104.59521990741</v>
       </c>
       <c r="I342" t="n">
         <v>9</v>
@@ -25221,10 +24555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:17:05</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44104.59519675926</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25288,10 +24620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:55</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44104.59508101852</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25363,10 +24693,8 @@
           <t>3545015589</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:51</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44104.59503472222</v>
       </c>
       <c r="I345" t="n">
         <v>5</v>
@@ -25430,10 +24758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:40</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44104.59490740741</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25497,10 +24823,8 @@
           <t>3545009059</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:33</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44104.59482638889</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25576,10 +24900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:25</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44104.59473379629</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25651,10 +24973,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:25</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44104.59473379629</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25722,10 +25042,8 @@
           <t>3545008961</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:23</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44104.59471064815</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25789,10 +25107,8 @@
           <t>3545015066</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:12</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44104.59458333333</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25864,10 +25180,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:09</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44104.59454861111</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25927,10 +25241,8 @@
           <t>3545004970</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:16:04</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44104.59449074074</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26002,10 +25314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:50</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44104.5943287037</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26081,10 +25391,8 @@
           <t>3545011175</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:49</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44104.59431712963</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26156,10 +25464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:42</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44104.59423611111</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26219,10 +25525,8 @@
           <t>3545008459</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:38</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44104.59418981482</v>
       </c>
       <c r="I357" t="n">
         <v>13</v>
@@ -26290,10 +25594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:31</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44104.59410879629</v>
       </c>
       <c r="I358" t="n">
         <v>28</v>
@@ -26362,10 +25664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:29</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44104.59408564815</v>
       </c>
       <c r="I359" t="n">
         <v>22</v>
@@ -26429,10 +25729,8 @@
           <t>3544995028</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:29</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44104.59408564815</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26504,10 +25802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:26</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44104.59405092592</v>
       </c>
       <c r="I361" t="n">
         <v>3</v>
@@ -26575,10 +25871,8 @@
           <t>3545004478</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:26</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44104.59405092592</v>
       </c>
       <c r="I362" t="n">
         <v>4</v>
@@ -26654,10 +25948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:19</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44104.59396990741</v>
       </c>
       <c r="I363" t="n">
         <v>13</v>
@@ -26725,10 +26017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:15:01</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44104.59376157408</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26792,10 +26082,8 @@
           <t>3545011175</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:14:57</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44104.59371527778</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26867,10 +26155,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:14:57</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44104.59371527778</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26942,10 +26228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:14:40</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44104.59351851852</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27013,10 +26297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:14:22</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44104.59331018518</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27092,10 +26374,8 @@
           <t>3545010648</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:14:18</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44104.59326388889</v>
       </c>
       <c r="I369" t="n">
         <v>3</v>
@@ -27159,10 +26439,8 @@
           <t>3545007519</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:14:16</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44104.59324074074</v>
       </c>
       <c r="I370" t="n">
         <v>11</v>
@@ -27226,10 +26504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:14:03</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44104.59309027778</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27293,10 +26569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:13:43</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44104.5928587963</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27360,10 +26634,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:13:25</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44104.59265046296</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27427,10 +26699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:13:14</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44104.59252314815</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27494,10 +26764,8 @@
           <t>3544989751</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:13:05</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44104.59241898148</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27569,10 +26837,8 @@
           <t>3545002288</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:12:40</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44104.59212962963</v>
       </c>
       <c r="I376" t="n">
         <v>3</v>
@@ -27636,10 +26902,8 @@
           <t>3545006333</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:12:32</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44104.59203703704</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27703,10 +26967,8 @@
           <t>3545006070</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:12:11</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44104.59179398148</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27770,10 +27032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:12:05</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44104.59172453704</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27852,10 +27112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:11:43</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44104.59146990741</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27931,10 +27189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:11:40</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44104.59143518518</v>
       </c>
       <c r="I381" t="n">
         <v>33</v>
@@ -28010,10 +27266,8 @@
           <t>3545001235</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:11:21</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44104.59121527777</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28073,10 +27327,8 @@
           <t>3545000871</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:10:53</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44104.5908912037</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28136,10 +27388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:10:47</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44104.59082175926</v>
       </c>
       <c r="I384" t="n">
         <v>2</v>
@@ -28215,10 +27465,8 @@
           <t>3544978206</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:10:47</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44104.59082175926</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28294,10 +27542,8 @@
           <t>3544994997</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:10:42</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44104.59076388889</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28369,10 +27615,8 @@
           <t>3544994634</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:10:09</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44104.59038194444</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28436,10 +27680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:09:57</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44104.59024305556</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28503,10 +27745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:09:41</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44104.59005787037</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28574,10 +27814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:09:35</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44104.58998842593</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28649,10 +27887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:09:34</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44104.58997685185</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28728,10 +27964,8 @@
           <t>3544989751</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:09:27</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44104.58989583333</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28799,10 +28033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:09:16</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44104.58976851852</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28874,10 +28106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:08:54</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44104.58951388889</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28945,10 +28175,8 @@
           <t>3544989310</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:08:54</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44104.58951388889</v>
       </c>
       <c r="I395" t="n">
         <v>5</v>
@@ -29012,10 +28240,8 @@
           <t>3544983528</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:08:40</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44104.58935185185</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29091,10 +28317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:08:31</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44104.58924768519</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29162,10 +28386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:08:11</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44104.5890162037</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29229,10 +28451,8 @@
           <t>3544995701</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:08:04</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44104.58893518519</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29300,10 +28520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:07:48</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44104.58875</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29376,10 +28594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:07:38</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44104.58863425926</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29447,10 +28663,8 @@
           <t>3544987979</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:07:15</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44104.58836805556</v>
       </c>
       <c r="I402" t="n">
         <v>3</v>
@@ -29518,10 +28732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:07:04</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44104.58824074074</v>
       </c>
       <c r="I403" t="n">
         <v>45</v>
@@ -29598,10 +28810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:06:54</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44104.588125</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29669,10 +28879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:06:53</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44104.58811342593</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29740,10 +28948,8 @@
           <t>3544987658</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:06:51</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44104.58809027778</v>
       </c>
       <c r="I406" t="n">
         <v>71</v>
@@ -29807,10 +29013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:06:45</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44104.58802083333</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29878,10 +29082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:06:23</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44104.5877662037</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -29945,10 +29147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:06:22</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44104.58775462963</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30012,10 +29212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:05:56</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44104.5874537037</v>
       </c>
       <c r="I410" t="n">
         <v>27</v>
@@ -30079,10 +29277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:05:35</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44104.58721064815</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30150,10 +29346,8 @@
           <t>3544983528</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:05:25</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44104.58709490741</v>
       </c>
       <c r="I412" t="n">
         <v>8</v>
@@ -30225,10 +29419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:05:05</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44104.58686342592</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30304,10 +29496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:05:01</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44104.58681712963</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30371,10 +29561,8 @@
           <t>3544986141</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:04:59</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44104.58679398148</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30438,10 +29626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:04:53</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44104.58672453704</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30517,10 +29703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:04:50</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44104.58668981482</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30588,10 +29772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:04:49</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44104.58667824074</v>
       </c>
       <c r="I418" t="n">
         <v>9</v>
@@ -30655,10 +29837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:04:21</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44104.58635416667</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30722,10 +29902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:04:13</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44104.58626157408</v>
       </c>
       <c r="I420" t="n">
         <v>191</v>
@@ -30793,10 +29971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:03:43</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44104.58591435185</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30864,10 +30040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:03:31</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44104.58577546296</v>
       </c>
       <c r="I422" t="n">
         <v>133</v>
@@ -30943,10 +30117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:03:04</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44104.58546296296</v>
       </c>
       <c r="I423" t="n">
         <v>433</v>
@@ -31022,10 +30194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:02:52</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44104.58532407408</v>
       </c>
       <c r="I424" t="n">
         <v>23</v>
@@ -31089,10 +30259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:02:29</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44104.58505787037</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31168,10 +30336,8 @@
           <t>3544973844</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:02:25</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44104.58501157408</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31247,10 +30413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:02:11</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44104.58484953704</v>
       </c>
       <c r="I427" t="n">
         <v>8</v>
@@ -31314,10 +30478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:02:06</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44104.58479166667</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31389,10 +30551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:40</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44104.58449074074</v>
       </c>
       <c r="I429" t="n">
         <v>77</v>
@@ -31464,10 +30624,8 @@
           <t>3544978206</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:36</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44104.58444444444</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31539,10 +30697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:28</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44104.58435185185</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31618,10 +30774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:20</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44104.58425925926</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31689,10 +30843,8 @@
           <t>3544977870</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:13</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44104.58417824074</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31768,10 +30920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:07</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44104.5841087963</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31839,10 +30989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:03</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44104.5840625</v>
       </c>
       <c r="I435" t="n">
         <v>540</v>
@@ -31914,10 +31062,8 @@
           <t>3544969752</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:00</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44104.58402777778</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -31985,10 +31131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:01:00</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44104.58402777778</v>
       </c>
       <c r="I437" t="n">
         <v>12</v>
@@ -32060,10 +31204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:00:57</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44104.58399305555</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32139,10 +31281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:00:52</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44104.58393518518</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32203,10 +31343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:00:48</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44104.58388888889</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32282,10 +31420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:00:43</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44104.58383101852</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32353,10 +31489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:00:41</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44104.58380787037</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32424,10 +31558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:00:36</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44104.58375</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32491,10 +31623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:00:27</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44104.58364583334</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32570,10 +31700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-30 14:00:27</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44104.58364583334</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
